--- a/doc/Glosario.xlsx
+++ b/doc/Glosario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D05096-73DF-4717-B800-3C21A7DC8ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491B6DA7-6053-46FA-8F98-2FB620EBAC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Termino</t>
   </si>
@@ -71,7 +71,10 @@
 interactúa con él.</t>
   </si>
   <si>
-    <t>iagrama Entidad-Relación</t>
+    <t>Diagrama Entidad-Relación</t>
+  </si>
+  <si>
+    <t>Un diagrama entidad-relación es una herramienta para el modelo de datos, la cual facilita la representación de entidades de una base de datos.</t>
   </si>
 </sst>
 </file>
@@ -454,17 +457,17 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D12" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="31.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,27 +475,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -500,7 +503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -508,9 +511,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Glosario.xlsx
+++ b/doc/Glosario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491B6DA7-6053-46FA-8F98-2FB620EBAC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A8D69E-82BB-4941-A01A-58B95C9A83B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Termino</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Un diagrama entidad-relación es una herramienta para el modelo de datos, la cual facilita la representación de entidades de una base de datos.</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Es una matriz bidimensional donde representar registros de información, ya sea texto, imágenes u otro tipo de componente</t>
   </si>
 </sst>
 </file>
@@ -454,20 +460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61A460-463D-46B0-B79E-A18376DC3A66}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D10:D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.44140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="31.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,27 +481,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -503,7 +509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -511,12 +517,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Glosario.xlsx
+++ b/doc/Glosario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A8D69E-82BB-4941-A01A-58B95C9A83B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B994EFD-71DB-4E19-BE7D-11FE633050B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Termino</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Es una matriz bidimensional donde representar registros de información, ya sea texto, imágenes u otro tipo de componente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket </t>
+  </si>
+  <si>
+    <t>Un ticket es un archivo contenido en el sistema de seguimiento de incidencias que contiene información acerca de intervenciones de software hechas por personal de soporte técnico o terceros a pedido de un usuario final que ha reportado un incidente que está impidiéndoles trabajar en sus computadoras cuando ellos esperaban poder hacerlo. Los tickets se crean generalmente en un ambiente de help desk o call center. Típicamente el ticket tiene un número único de referencia, también conocido como un número de caso, incidente o reporte de llamada, el cual es usado para permitir al cliente o al personal de soporte localizar, añadir o comunicar el estado del incidente o requerimiento.</t>
   </si>
 </sst>
 </file>
@@ -460,16 +466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61A460-463D-46B0-B79E-A18376DC3A66}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="108.85546875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -533,6 +539,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/Glosario.xlsx
+++ b/doc/Glosario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B994EFD-71DB-4E19-BE7D-11FE633050B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442B232-8B1E-41E2-8CD7-3C3593AB0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Termino</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>Un ticket es un archivo contenido en el sistema de seguimiento de incidencias que contiene información acerca de intervenciones de software hechas por personal de soporte técnico o terceros a pedido de un usuario final que ha reportado un incidente que está impidiéndoles trabajar en sus computadoras cuando ellos esperaban poder hacerlo. Los tickets se crean generalmente en un ambiente de help desk o call center. Típicamente el ticket tiene un número único de referencia, también conocido como un número de caso, incidente o reporte de llamada, el cual es usado para permitir al cliente o al personal de soporte localizar, añadir o comunicar el estado del incidente o requerimiento.</t>
+  </si>
+  <si>
+    <t>Help Desk</t>
+  </si>
+  <si>
+    <t>Mesa de Ayuda, o Centro de Servicio, o simplemente CAU Centro de Atención al Usuario es un conjunto de recursos tecnológicos y humanos, para prestar servicios con la posibilidad de gestionar y solucionar todas las posibles incidencias de manera integral, junto con la atención de requerimientos relacionados con las Tecnologías de la Información y la Comunicación (TIC).</t>
+  </si>
+  <si>
+    <t>JAVA</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>SPRING BOOT</t>
+  </si>
+  <si>
+    <t>DELPHI</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Multi-Plataforma</t>
   </si>
 </sst>
 </file>
@@ -466,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61A460-463D-46B0-B79E-A18376DC3A66}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -545,6 +572,49 @@
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Glosario.xlsx
+++ b/doc/Glosario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442B232-8B1E-41E2-8CD7-3C3593AB0A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A3E4A0-C571-4450-9D64-0106E0629FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Termino</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Multi-Plataforma</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>TOKEN</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61A460-463D-46B0-B79E-A18376DC3A66}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -617,6 +623,16 @@
         <v>24</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/Glosario.xlsx
+++ b/doc/Glosario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A3E4A0-C571-4450-9D64-0106E0629FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DF4908-E7BE-4BF4-ADC0-80AE0055907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Termino</t>
   </si>
@@ -120,13 +120,46 @@
   </si>
   <si>
     <t>TOKEN</t>
+  </si>
+  <si>
+    <t>SERVICE-NOW</t>
+  </si>
+  <si>
+    <t>Inversión de control</t>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+  </si>
+  <si>
+    <t>DOCKER</t>
+  </si>
+  <si>
+    <t>DTO</t>
+  </si>
+  <si>
+    <t>POJO</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JPA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIBERNATE </t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +181,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -184,6 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -499,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61A460-463D-46B0-B79E-A18376DC3A66}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +673,61 @@
         <v>25</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/doc/Glosario.xlsx
+++ b/doc/Glosario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\victor\gitmio\CleverHelpDesk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DF4908-E7BE-4BF4-ADC0-80AE0055907F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEBBC88-67A9-4D3F-82D2-A5831A9FBDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1116702B-8BD7-4855-B7AA-5AF5D1E7FCB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Termino</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">framework </t>
   </si>
 </sst>
 </file>
@@ -539,9 +542,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA61A460-463D-46B0-B79E-A18376DC3A66}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -728,6 +731,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
